--- a/tests/test_tax_transfers/test_data/test_dfs_ssc.xlsx
+++ b/tests/test_tax_transfers/test_data/test_dfs_ssc.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ssc1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>tu_id</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>haskids</t>
+  </si>
+  <si>
+    <t>pid</t>
   </si>
 </sst>
 </file>
@@ -415,19 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -435,52 +438,55 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2</f>
         <v>1</v>
@@ -489,43 +495,43 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>25</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>2018</v>
       </c>
-      <c r="L2" s="2">
-        <f>R2+S2+T2+U2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>0.7547*450+(((850/(850-450))-(450/(850-450)*0.7547))*(C2-450))</f>
+      <c r="M2" s="2">
+        <f>S2+T2+U2+V2</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>0.7547*450+(((850/(850-450))-(450/(850-450)*0.7547))*(D2-450))</f>
         <v>148.22062500000001</v>
       </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
       <c r="S2" s="3">
         <v>0</v>
       </c>
@@ -535,8 +541,11 @@
       <c r="U2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A13" si="0">B3</f>
         <v>2</v>
@@ -545,58 +554,61 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>600</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>2018</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L13" si="1">R3+S3+T3+U3</f>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M13" si="1">S3+T3+U3+V3</f>
         <v>96.153749999999988</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="2">0.7547*450+(((850/(850-450))-(450/(850-450)*0.7547))*(C3-450))</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="2">0.7547*450+(((850/(850-450))-(450/(850-450)*0.7547))*(D3-450))</f>
         <v>531.00937499999998</v>
       </c>
-      <c r="R3" s="3">
-        <f>0.093 * 2 *$Q3 - (0.093 *$C3)</f>
+      <c r="S3" s="3">
+        <f>0.093 * 2 *$R3 - (0.093 *$D3)</f>
         <v>42.967743749999997</v>
       </c>
-      <c r="S3" s="3">
-        <f>0.01275*2*$Q3-(0.01275*$C3)+(0.0025*(G3=FALSE)*(E3&gt;=23)*Q3)</f>
+      <c r="T3" s="3">
+        <f>0.01275*2*$R3-(0.01275*$D3)+(0.0025*(H3=FALSE)*(F3&gt;=23)*R3)</f>
         <v>7.2182624999999989</v>
       </c>
-      <c r="T3" s="3">
-        <f>(0.083 + 0.073) *$Q3 - (0.073 *$C3)</f>
+      <c r="U3" s="3">
+        <f>(0.083 + 0.073) *$R3 - (0.073 *$D3)</f>
         <v>39.037462500000004</v>
       </c>
-      <c r="U3" s="3">
-        <f>0.015 * 2 *$Q3 - (0.015 *$C3)</f>
+      <c r="V3" s="3">
+        <f>0.015 * 2 *$R3 - (0.015 *$D3)</f>
         <v>6.9302812499999984</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -605,58 +617,61 @@
         <v>3</v>
       </c>
       <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
         <v>900</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>2018</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>185.625</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="2"/>
         <v>913.79812499999991</v>
       </c>
-      <c r="R4" s="3">
-        <f>0.093 *$C4</f>
+      <c r="S4" s="3">
+        <f>0.093 *$D4</f>
         <v>83.7</v>
       </c>
-      <c r="S4" s="3">
-        <f>(0.01275 + (0.0025*(G4=FALSE)*(E4&gt;=23))) *C4</f>
+      <c r="T4" s="3">
+        <f>(0.01275 + (0.0025*(H4=FALSE)*(F4&gt;=23))) *D4</f>
         <v>13.725</v>
       </c>
-      <c r="T4" s="3">
-        <f>0.083 *$C4</f>
+      <c r="U4" s="3">
+        <f>0.083 *$D4</f>
         <v>74.7</v>
       </c>
-      <c r="U4" s="3">
-        <f>0.015 *$C4</f>
+      <c r="V4" s="3">
+        <f>0.015 *$D4</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -665,58 +680,61 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
         <v>1200</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2018</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
         <v>244.5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>1296.586875</v>
       </c>
-      <c r="R5" s="3">
-        <f>0.093 *$C5</f>
+      <c r="S5" s="3">
+        <f>0.093 *$D5</f>
         <v>111.6</v>
       </c>
-      <c r="S5" s="3">
-        <f>(0.01275 + (0.0025*(G5=FALSE)*(E5&gt;=23))) *C5</f>
+      <c r="T5" s="3">
+        <f>(0.01275 + (0.0025*(H5=FALSE)*(F5&gt;=23))) *D5</f>
         <v>15.299999999999999</v>
       </c>
-      <c r="T5" s="3">
-        <f>0.083 *$C5</f>
+      <c r="U5" s="3">
+        <f>0.083 *$D5</f>
         <v>99.600000000000009</v>
       </c>
-      <c r="U5" s="3">
-        <f>0.015 *$C5</f>
+      <c r="V5" s="3">
+        <f>0.015 *$D5</f>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -725,58 +743,61 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1500</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>2018</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>305.625</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>1679.3756249999999</v>
       </c>
-      <c r="R6" s="3">
-        <f>0.093 *$C6</f>
+      <c r="S6" s="3">
+        <f>0.093 *$D6</f>
         <v>139.5</v>
       </c>
-      <c r="S6" s="3">
-        <f>(0.01275 + (0.0025*(G6=FALSE)*(E6&gt;=23))) *C6</f>
+      <c r="T6" s="3">
+        <f>(0.01275 + (0.0025*(H6=FALSE)*(F6&gt;=23))) *D6</f>
         <v>19.125</v>
       </c>
-      <c r="T6" s="3">
-        <f>0.083 *$C6</f>
+      <c r="U6" s="3">
+        <f>0.083 *$D6</f>
         <v>124.5</v>
       </c>
-      <c r="U6" s="3">
-        <f>0.015 *$C6</f>
+      <c r="V6" s="3">
+        <f>0.015 *$D6</f>
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -785,58 +806,61 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <v>1354</v>
+      </c>
+      <c r="D7">
         <v>5000</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>2018</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>963.69375000000014</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>6145.2443749999993</v>
       </c>
-      <c r="R7" s="3">
-        <f>0.093 *$C7</f>
+      <c r="S7" s="3">
+        <f>0.093 *$D7</f>
         <v>465</v>
       </c>
-      <c r="S7" s="3">
-        <f>(0.01275 + (0.0025*(G7=FALSE)*(E7&gt;=23))) *4425</f>
+      <c r="T7" s="3">
+        <f>(0.01275 + (0.0025*(H7=FALSE)*(F7&gt;=23))) *4425</f>
         <v>56.418749999999996</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <f>0.083 *4425</f>
         <v>367.27500000000003</v>
       </c>
-      <c r="U7" s="3">
-        <f>0.015 *$C7</f>
+      <c r="V7" s="3">
+        <f>0.015 *$D7</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -845,43 +869,43 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>3483</v>
+      </c>
+      <c r="D8">
         <v>300</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2010</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q8">
-        <f>0.7585*450+(((800/(800-450))-(450/(800-450)*0.7585))*(C8-450))</f>
+      <c r="R8">
+        <f>0.7585*450+(((800/(800-450))-(450/(800-450)*0.7585))*(D8-450))</f>
         <v>144.75000000000003</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -891,8 +915,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -901,58 +928,61 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>874</v>
+      </c>
+      <c r="D9">
         <v>600</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>2010</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>102.24735000000003</v>
       </c>
-      <c r="Q9">
-        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(C9-400))</f>
+      <c r="R9">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D9-400))</f>
         <v>551.70000000000005</v>
       </c>
-      <c r="R9" s="3">
-        <f>0.0995 * 2 *$Q9 - (0.0995 *$C9)</f>
+      <c r="S9" s="3">
+        <f>0.0995 * 2 *$R9 - (0.0995 *$D9)</f>
         <v>50.088300000000018</v>
       </c>
-      <c r="S9" s="3">
-        <f>0.00975*2*$Q9-(0.00975*$C9)+(0.0025*(G9=FALSE)*(E9&gt;=23)*Q9)</f>
+      <c r="T9" s="3">
+        <f>0.00975*2*$R9-(0.00975*$D9)+(0.0025*(H9=FALSE)*(F9&gt;=23)*R9)</f>
         <v>4.9081500000000009</v>
       </c>
-      <c r="T9" s="3">
-        <f>(0.079 + 0.07) *$Q9 - (0.07 *$C9)</f>
+      <c r="U9" s="3">
+        <f>(0.079 + 0.07) *$R9 - (0.07 *$D9)</f>
         <v>40.203300000000006</v>
       </c>
-      <c r="U9" s="3">
-        <f>0.014 * 2 *$Q9 - (0.014 *$C9)</f>
+      <c r="V9" s="3">
+        <f>0.014 * 2 *$R9 - (0.014 *$D9)</f>
         <v>7.047600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -961,58 +991,61 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>6414</v>
+      </c>
+      <c r="D10">
         <v>900</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>2010</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
         <v>182.02500000000001</v>
       </c>
-      <c r="Q10">
-        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(C10-400))</f>
+      <c r="R10">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D10-400))</f>
         <v>924.15</v>
       </c>
-      <c r="R10" s="3">
-        <f>0.0995 *$C10</f>
+      <c r="S10" s="3">
+        <f>0.0995 *$D10</f>
         <v>89.550000000000011</v>
       </c>
-      <c r="S10" s="3">
-        <f>(0.00975 + (0.0025*(G10=FALSE)*(E10&gt;=23))) *C10</f>
+      <c r="T10" s="3">
+        <f>(0.00975 + (0.0025*(H10=FALSE)*(F10&gt;=23))) *D10</f>
         <v>8.7750000000000004</v>
       </c>
-      <c r="T10" s="3">
-        <f>0.079 *$C10</f>
+      <c r="U10" s="3">
+        <f>0.079 *$D10</f>
         <v>71.099999999999994</v>
       </c>
-      <c r="U10" s="3">
-        <f>0.014 *$C10</f>
+      <c r="V10" s="3">
+        <f>0.014 *$D10</f>
         <v>12.6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1021,58 +1054,61 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <v>54684</v>
+      </c>
+      <c r="D11">
         <v>1200</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>2010</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f t="shared" si="1"/>
         <v>242.7</v>
       </c>
-      <c r="Q11">
-        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(C11-400))</f>
+      <c r="R11">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D11-400))</f>
         <v>1296.5999999999999</v>
       </c>
-      <c r="R11" s="3">
-        <f>0.0995 *$C11</f>
+      <c r="S11" s="3">
+        <f>0.0995 *$D11</f>
         <v>119.4</v>
       </c>
-      <c r="S11" s="3">
-        <f>(0.00975 + (0.0025*(G11=TRUE)*(E11&gt;=23))) *C11</f>
+      <c r="T11" s="3">
+        <f>(0.00975 + (0.0025*(H11=TRUE)*(F11&gt;=23))) *D11</f>
         <v>11.7</v>
       </c>
-      <c r="T11" s="3">
-        <f>0.079 *$C11</f>
+      <c r="U11" s="3">
+        <f>0.079 *$D11</f>
         <v>94.8</v>
       </c>
-      <c r="U11" s="3">
-        <f>0.014 *$C11</f>
+      <c r="V11" s="3">
+        <f>0.014 *$D11</f>
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1081,58 +1117,61 @@
         <v>11</v>
       </c>
       <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>1500</v>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>2010</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>303.375</v>
       </c>
-      <c r="Q12">
-        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(C12-400))</f>
+      <c r="R12">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D12-400))</f>
         <v>1669.0500000000002</v>
       </c>
-      <c r="R12" s="3">
-        <f>0.0995 *$C12</f>
+      <c r="S12" s="3">
+        <f>0.0995 *$D12</f>
         <v>149.25</v>
       </c>
-      <c r="S12" s="3">
-        <f>(0.00975 + (0.0025*(G12=TRUE)*(E12&gt;=23))) *C12</f>
+      <c r="T12" s="3">
+        <f>(0.00975 + (0.0025*(H12=TRUE)*(F12&gt;=23))) *D12</f>
         <v>14.625</v>
       </c>
-      <c r="T12" s="3">
-        <f>0.079 *$C12</f>
+      <c r="U12" s="3">
+        <f>0.079 *$D12</f>
         <v>118.5</v>
       </c>
-      <c r="U12" s="3">
-        <f>0.014 *$C12</f>
+      <c r="V12" s="3">
+        <f>0.014 *$D12</f>
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1141,86 +1180,89 @@
         <v>12</v>
       </c>
       <c r="C13">
+        <v>369</v>
+      </c>
+      <c r="D13">
         <v>8000</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>2010</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>957.0625</v>
       </c>
-      <c r="Q13">
-        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(C13-400))</f>
+      <c r="R13">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D13-400))</f>
         <v>9738.7999999999993</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <f>0.0995 *5500</f>
         <v>547.25</v>
       </c>
-      <c r="S13" s="3">
-        <f>(0.00975 + (0.0025*(G13=TRUE)*(E13&gt;=23))) *3750</f>
+      <c r="T13" s="3">
+        <f>(0.00975 + (0.0025*(H13=TRUE)*(F13&gt;=23))) *3750</f>
         <v>36.5625</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <f>0.079 *3750</f>
         <v>296.25</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <f>0.014 *5500</f>
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="2"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/test_tax_transfers/test_data/test_dfs_ssc.xlsx
+++ b/tests/test_tax_transfers/test_data/test_dfs_ssc.xlsx
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>2018</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M13" si="1">S3+T3+U3+V3</f>
+        <f t="shared" ref="M3:M15" si="1">S3+T3+U3+V3</f>
         <v>96.153749999999988</v>
       </c>
       <c r="R3">
@@ -1235,10 +1235,126 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M14" s="2"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2002</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>144.55000000000001</v>
+      </c>
+      <c r="R14">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D14-400))</f>
+        <v>675.84999999999991</v>
+      </c>
+      <c r="S14" s="3">
+        <f>0.0955 *$D14</f>
+        <v>66.849999999999994</v>
+      </c>
+      <c r="T14" s="3">
+        <f>(0.0085 + (0.0025*(H14=TRUE)*(F14&gt;=23))) *D14</f>
+        <v>5.95</v>
+      </c>
+      <c r="U14" s="3">
+        <f>0.07 *$D14</f>
+        <v>49.000000000000007</v>
+      </c>
+      <c r="V14" s="3">
+        <f>0.0325 *$D14</f>
+        <v>22.75</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M15" s="2"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>4684</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2500</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2019</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>433.37437499999999</v>
+      </c>
+      <c r="R15">
+        <f>0.7585*400+(((800/(800-400))-(400/(800-400)*0.7585))*(D15-400))</f>
+        <v>-193.20000000000005</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <f>2*0.01525*MIN(I15,0.75*3115)</f>
+        <v>71.255624999999995</v>
+      </c>
+      <c r="U15" s="3">
+        <f>(0.073 + 0.082)*MIN(I15,0.75*3115)</f>
+        <v>362.11874999999998</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16" s="2"/>
